--- a/biology/Histoire de la zoologie et de la botanique/Antoine_Sautier/Antoine_Sautier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Antoine_Sautier/Antoine_Sautier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Sautier est un jardinier français décédé en 1801 qui participa à l'expédition vers les Terres australes que commanda Nicolas Baudin au départ du Havre à compter du 19 octobre 1800. Assistant d'Anselme Riedlé, il meurt durant ce voyage d'exploration scientifique, tout comme Riedlé.
  Portail du jardinage et de l’horticulture   Portail de la France   Portail de l’exploration   Portail de l’histoire de la zoologie et de la botanique                  </t>
